--- a/WaterSave - AI-Software.xlsx
+++ b/WaterSave - AI-Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredduzzi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D6E2D-9C1A-4936-9FD0-DFFBA4689F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB29536-9188-406A-93E2-B9DF33F6291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={12DF65BC-2984-4DD4-A5BA-C75005DA9D84}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{12DF65BC-2984-4DD4-A5BA-C75005DA9D84}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+L’ideale è avere + di due di questi punti:
+- COMUNE: molte persone/aziende hanno lo stesso problema;
+- IN CRESCITA: più persone avranno questo problema;
+- URGENTE: deve essere risolto;
+- DIFFICILE: da risolvere;
+- OBBLIGATORIO: le persone devono risolverlo;
+- FREQUENTE: molte opportunità di conversione.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Categoria</t>
   </si>
@@ -93,9 +117,6 @@
     <t>UDEC / 3DEC</t>
   </si>
   <si>
-    <t>Descrizione</t>
-  </si>
-  <si>
     <t>Legenda Punteggi</t>
   </si>
   <si>
@@ -136,14 +157,218 @@
   </si>
   <si>
     <t>Gestione dati e informazioni sui progetti: analisi dei dati per identificare inefficienze idriche, proporre alternative di design e monitoraggio dei consumi (One Click LCA potrebbe calcolare l'impronta idrica e proporre materiali e tecniche costruttive a basso impatto idrico).
-Simulazione scenari di risparmio idrico attraverso il monitoraggio di determinati parametri.</t>
+Simulazione scenari di risparmio idrico attraverso il monitoraggio di determinati parametri</t>
+  </si>
+  <si>
+    <t>MVP (Minimum Viable Product) IA nella Gestione Idrica</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1) DEFINIZIONE DEL PROBLEMA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Il problema alla radice della gestione dell’acqua nel mondo risiede nella distribuzione disomogenea delle risorse idriche e nell’uso inefficiente dell’acqua disponibile. A causa dei cambiamenti climatici, dell’urbanizzazione incontrollata e della mancanza di infrastrutture adeguate, molte regioni affrontano scarsità idrica, inquinamento delle fonti e spreco massiccio, mettendo a rischio la sostenibilità ambientale e la sicurezza idrica globale.
+La gestione idrica negli edifici e nelle infrastrutture rappresenta una sfida complessa che coinvolge l’intero ciclo di vita del progetto: dalla fase di progettazione fino alla gestione operativa. Durante la progettazione, spesso manca un approccio predittivo capace di ottimizzare l’uso dell’acqua e il drenaggio, con il rischio di scelte progettuali poco efficienti dal punto di vista idrico.
+Durante la costruzione, l’assenza di monitoraggio in tempo reale e di controllo sulla distribuzione idrica può causare perdite e sprechi difficilmente rilevabili. Anche nella fase operativa la gestione risulta spesso inefficiente, con una scarsa capacità di monitorare i consumi, rilevare eventuali anomalie o dimostrare in modo trasparente l’efficienza idrica raggiunta.
+Queste problematiche comportano uno spreco significativo di risorse idriche, un aumento dei costi operativi e una difficoltà nel fornire una rendicontazione chiara e trasparente sull’uso dell’acqua, necessaria sia per il rispetto delle normative ambientali sia per ottenere certificazioni di sostenibilità.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2) DEFINIZIONE DEL TARGET:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "WaterSave" si pone l’obiettivo di massimizzare il risparmio idrico e ottimizzare la gestione delle risorse idriche durante tutte le fasi di vita di un edificio o infrastruttura. L’idea alla base del progetto è di creare un sistema intelligente che offra un monitoraggio continuo, una gestione ottimizzata e una rendicontazione precisa dei consumi, garantendo al contempo l’efficienza operativa e la sostenibilità ambientale.
+In particolare, il progetto punta a ottenere un risparmio idrico del "20-30%" rispetto alle pratiche tradizionali, riducendo al minimo le perdite e garantendo una gestione efficiente tramite algoritmi predittivi. Inoltre, uno degli obiettivi principali è fornire una rendicontazione trasparente e in tempo reale, per consentire ai responsabili della gestione e agli enti certificatori di valutare con precisione l’efficacia delle soluzioni implementate.
+I principali destinatari di "WaterSave" sono progettisti, ingegneri, direttori dei lavori, appaltatori, facility manager e amministratori immobiliari, oltre agli enti di certificazione e alle organizzazioni impegnate nella sostenibilità ambientale.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3) DEFINIZIONE DELLA SOLUZIONE MVP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "WaterSave" sarà una piattaforma integrata in grado di monitorare e ottimizzare l’uso dell’acqua in edifici e infrastrutture attraverso l’uso combinato di intelligenza artificiale, IoT e tecnologie BIM. La soluzione sarà costituita da quattro moduli principali, ognuno dei quali risponderà a un’esigenza specifica lungo il ciclo di vita dell’opera:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Modulo di Progettazione Assistita (BIM + IA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Questo modulo supporterà i progettisti durante la fase iniziale, integrandosi con software BIM come Archicad e DDScad. L’obiettivo sarà fornire suggerimenti per ottimizzare l’uso dell’acqua, analizzando diverse configurazioni impiantistiche e proponendo soluzioni efficienti per il riciclo e il drenaggio. Sarà inoltre possibile simulare i risparmi idrici previsti, permettendo una valutazione immediata dell’impatto delle scelte progettuali.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Modulo di Monitoraggio e Controllo (IoT + IA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Durante la fase di costruzione e operativa, "WaterSave" utilizzerà una rete di sensori intelligenti per monitorare in tempo reale i consumi idrici e rilevare eventuali perdite (oltre alle bollette nella fase operativa). I dati raccolti saranno visualizzati in una dashboard interattiva, accessibile da dispositivi mobili e web, consentendo una gestione centralizzata e tempestiva delle risorse idriche.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Modulo di Ottimizzazione (Machine Learning)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Grazie ad algoritmi di machine learning, la piattaforma sarà in grado di analizzare l’andamento dei consumi e identificare pattern ricorrenti, suggerendo azioni correttive e pianificando interventi di manutenzione preventiva. In questo modo sarà possibile prevenire perdite, ottimizzare il flusso idrico e garantire una gestione sostenibile e sicura nel tempo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Modulo di Rendicontazione (Reporting IA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Per garantire la massima trasparenza, il sistema genererà automaticamente report dettagliati sui consumi idrici e sui risparmi ottenuti, fornendo indicatori di performance e comparazioni con benchmark del settore. I report saranno disponibili in tempo reale e personalizzabili per rispondere alle esigenze di vari stakeholder, compresi gli enti certificatori e i responsabili della sostenibilità aziendale.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RISULTATI ATTESI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Il sistema si propone di raggiungere i seguenti obiettivi misurabili:
+- Riduzione dei consumi idrici di almeno il "20%" nei primi sei mesi di utilizzo.
+- Rilevamento tempestivo delle perdite con una precisione del "95%".
+- Aggiornamento in tempo reale dei dati sulla dashboard.
+- Generazione automatica di report certificabili e di facile consultazione.</t>
+    </r>
+  </si>
+  <si>
+    <t>PRODOTTI HC DA IMPLEMENTARE CON SOLUZIONE PROPOSTA</t>
+  </si>
+  <si>
+    <t>Descrizione dell'implementazione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +383,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -187,13 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,14 +493,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -289,26 +517,358 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -319,6 +879,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Gabriele Fredduzzi" id="{72A950A1-2655-4491-A61B-BBE90A33AF1A}" userId="S::fredduzzi@harpaceas.it::6b8dbc55-441d-4dcb-ac72-6461e46749c3" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,269 +1148,348 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2025-03-31T14:00:16.77" personId="{72A950A1-2655-4491-A61B-BBE90A33AF1A}" id="{12DF65BC-2984-4DD4-A5BA-C75005DA9D84}">
+    <text>L’ideale è avere + di due di questi punti:
+- COMUNE: molte persone/aziende hanno lo stesso problema;
+- IN CRESCITA: più persone avranno questo problema;
+- URGENTE: deve essere risolto;
+- DIFFICILE: da risolvere;
+- OBBLIGATORIO: le persone devono risolverlo;
+- FREQUENTE: molte opportunità di conversione.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="145.85546875" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="4">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>3</v>
-      </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4">
-        <v>3</v>
-      </c>
-      <c r="D25" s="14"/>
+      <c r="D33" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D25"/>
+  <mergeCells count="7">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
+  <conditionalFormatting sqref="C18:C33">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>